--- a/Projects/SANOFIDZ/Data/Template.xlsx
+++ b/Projects/SANOFIDZ/Data/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svetar\Desktop\SANOFI\Algiria_DZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Implementation\EMEA\SANOFI\Sanofi_DZ\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E2888EA-9F14-4A07-980D-20416B022BE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80B622C0-97DB-481B-BB40-BF28F0D648B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
   <si>
     <t>KPI Name</t>
   </si>
@@ -806,12 +806,6 @@
     <t>Digestive Health</t>
   </si>
   <si>
-    <t>Doliprane 1000 mg cpr, Doliprane 300 mg suppo, Doliprane 500 mg cpr,Doliprane syrup, Doliprane 150 mg suppo,Doliprane 200 mg suppo</t>
-  </si>
-  <si>
-    <t>403689,422482,250263, 274263, 250261,250262</t>
-  </si>
-  <si>
     <t>669157, 669158</t>
   </si>
   <si>
@@ -824,28 +818,10 @@
     <t>Telfast 120 mg cpr ,Telfast 180 mg cpr</t>
   </si>
   <si>
-    <t>Aspegic display</t>
-  </si>
-  <si>
-    <t>Doliprane range dispaly</t>
-  </si>
-  <si>
-    <t>Dolirpane syrup display</t>
-  </si>
-  <si>
-    <t>Telfast display</t>
-  </si>
-  <si>
-    <t>DZ-DOL-CTU-01</t>
-  </si>
-  <si>
-    <t>DZ-DOL-CTU-02</t>
-  </si>
-  <si>
-    <t>DZ-ASP-CTU-03</t>
-  </si>
-  <si>
-    <t>DZ-TEL-CTU-04</t>
+    <t>Doliprane 1000 mg cpr, Doliprane 500 mg cpr,</t>
+  </si>
+  <si>
+    <t>403689, 422482</t>
   </si>
 </sst>
 </file>
@@ -946,14 +922,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -961,14 +937,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -976,7 +952,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1008,7 +984,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1024,20 +1000,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1805,18 +1781,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
@@ -1923,7 +1899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
@@ -1944,7 +1920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>35</v>
       </c>
@@ -1965,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +1960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>31</v>
       </c>
@@ -2020,7 +1996,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
@@ -2035,7 +2011,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>33</v>
       </c>
@@ -2062,22 +2038,22 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2088,7 +2064,7 @@
       </c>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2134,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2295,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2341,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="D18" s="6"/>
@@ -2478,20 +2454,20 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="15" customWidth="1"/>
     <col min="2" max="3" width="21" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="21" style="15" customWidth="1"/>
     <col min="6" max="7" width="17" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="10"/>
+    <col min="8" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2502,7 +2478,7 @@
       </c>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2502,7 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
@@ -2537,7 +2513,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -2548,7 +2524,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2535,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -2570,7 +2546,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2557,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2568,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2579,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -2614,7 +2590,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +2601,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -2636,7 +2612,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2623,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2634,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2645,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2656,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2667,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2711,20 +2687,20 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="3" width="20.5546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2735,7 +2711,7 @@
       </c>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
@@ -2769,10 +2745,10 @@
         <v>62</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" s="47">
         <v>1</v>
@@ -2781,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
@@ -2792,10 +2768,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="47">
         <v>1</v>
@@ -2804,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
@@ -2815,10 +2791,10 @@
         <v>61</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
@@ -2827,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2836,7 +2812,7 @@
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2845,7 +2821,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2854,7 +2830,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2878,22 +2854,22 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="26" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="19"/>
+    <col min="5" max="5" width="18.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2904,7 +2880,7 @@
       </c>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2927,99 +2903,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="56"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="56"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="D7" s="26"/>
@@ -3027,7 +2951,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="D8" s="26"/>
@@ -3035,7 +2959,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="D9" s="26"/>
@@ -3043,7 +2967,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="22"/>
     </row>
   </sheetData>
@@ -3061,21 +2985,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="33" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="30.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3086,7 +3010,7 @@
       </c>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3057,7 @@
       </c>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
@@ -3157,7 +3081,7 @@
       </c>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
@@ -3203,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3249,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
@@ -3272,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>2</v>
       </c>
@@ -3295,7 +3219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
@@ -3318,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>2</v>
       </c>
@@ -3341,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>2</v>
       </c>
@@ -3364,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>2</v>
       </c>
@@ -3456,166 +3380,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="57">
-        <v>403689</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="65">
-        <v>4</v>
-      </c>
-      <c r="G18" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="57">
-        <v>422482</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="65">
-        <v>4</v>
-      </c>
-      <c r="G19" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="57">
-        <v>250263</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="65">
-        <v>1</v>
-      </c>
-      <c r="G20" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="57">
-        <v>669157</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="65">
-        <v>3</v>
-      </c>
-      <c r="G21" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="57">
-        <v>669158</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="65">
-        <v>3</v>
-      </c>
-      <c r="G22" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="57">
-        <v>309095</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="65">
-        <v>2</v>
-      </c>
-      <c r="G23" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="57">
-        <v>309092</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="65">
-        <v>2</v>
-      </c>
-      <c r="G24" s="65">
-        <v>0</v>
-      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
